--- a/data/trans_orig/P19C11_2023-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P19C11_2023-Clase-trans_orig.xlsx
@@ -551,7 +551,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población según si el motivo por su última visita al dentista fue por implantes / solo 2023 en 2023 (tasa de respuesta: 99,54%)</t>
+          <t>Población según si el motivo por su última visita al dentista fue por implantes en 2023 (tasa de respuesta: 99,54%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/P19C11_2023-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P19C11_2023-Clase-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>32454</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>23394</v>
+        <v>23439</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>44724</v>
+        <v>44669</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.05996062799473159</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.04322204614989963</v>
+        <v>0.04330417043188509</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.08262987668691954</v>
+        <v>0.08252797719536727</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>38</v>
@@ -762,19 +762,19 @@
         <v>24401</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>17558</v>
+        <v>18090</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>33986</v>
+        <v>33809</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.0506944764195298</v>
+        <v>0.05069447641952981</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.03647823271542695</v>
+        <v>0.03758384295084021</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.07060870356948491</v>
+        <v>0.07024209157105218</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>75</v>
@@ -783,19 +783,19 @@
         <v>56855</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>43134</v>
+        <v>46244</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>69813</v>
+        <v>73385</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.05559910937169074</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.04218068745974818</v>
+        <v>0.04522218550601383</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.06827114399702558</v>
+        <v>0.07176424443175686</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>508809</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>496539</v>
+        <v>496594</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>517869</v>
+        <v>517824</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.9400393720052683</v>
+        <v>0.9400393720052684</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9173701233130793</v>
+        <v>0.9174720228046328</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9567779538501002</v>
+        <v>0.9566958295681149</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>637</v>
@@ -833,19 +833,19 @@
         <v>456926</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>447341</v>
+        <v>447518</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>463769</v>
+        <v>463237</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.9493055235804702</v>
+        <v>0.9493055235804703</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9293912964305151</v>
+        <v>0.9297579084289476</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9635217672845731</v>
+        <v>0.9624161570491597</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1145</v>
@@ -854,19 +854,19 @@
         <v>965735</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>952777</v>
+        <v>949205</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>979456</v>
+        <v>976346</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.9444008906283092</v>
+        <v>0.9444008906283093</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9317288560029745</v>
+        <v>0.9282357555682421</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.957819312540252</v>
+        <v>0.9547778144939857</v>
       </c>
     </row>
     <row r="6">
@@ -958,19 +958,19 @@
         <v>22737</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>14827</v>
+        <v>15561</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>31277</v>
+        <v>33131</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.04743384083299922</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.03093241989644725</v>
+        <v>0.03246289161207157</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.06525225541812826</v>
+        <v>0.06911844418011084</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>22</v>
@@ -979,19 +979,19 @@
         <v>13926</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>8664</v>
+        <v>9024</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>21617</v>
+        <v>21130</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.03332304841523482</v>
+        <v>0.03332304841523483</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02073056169569832</v>
+        <v>0.02159150375736513</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.05172468517856992</v>
+        <v>0.05055979267972554</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>50</v>
@@ -1000,19 +1000,19 @@
         <v>36663</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>27542</v>
+        <v>28296</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>49220</v>
+        <v>48116</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.04086134887050744</v>
+        <v>0.04086134887050745</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.03069604353238927</v>
+        <v>0.03153580980693607</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.05485637965611431</v>
+        <v>0.05362574608309037</v>
       </c>
     </row>
     <row r="8">
@@ -1029,19 +1029,19 @@
         <v>456595</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>448055</v>
+        <v>446201</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>464505</v>
+        <v>463771</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9525661591670008</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9347477445818709</v>
+        <v>0.9308815558198892</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9690675801035525</v>
+        <v>0.9675371083879285</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>560</v>
@@ -1050,19 +1050,19 @@
         <v>403994</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>396303</v>
+        <v>396790</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>409256</v>
+        <v>408896</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9666769515847651</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9482753148214302</v>
+        <v>0.9494402073202746</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9792694383043018</v>
+        <v>0.9784084962426349</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1009</v>
@@ -1071,19 +1071,19 @@
         <v>860590</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>848033</v>
+        <v>849137</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>869711</v>
+        <v>868957</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9591386511294926</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9451436203438858</v>
+        <v>0.9463742539169098</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9693039564676108</v>
+        <v>0.968464190193064</v>
       </c>
     </row>
     <row r="9">
@@ -1175,19 +1175,19 @@
         <v>18416</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>11914</v>
+        <v>11698</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>27211</v>
+        <v>27790</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03970190977217452</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02568357584792831</v>
+        <v>0.02521806163921298</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.05866180398230274</v>
+        <v>0.0599102625303533</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>21</v>
@@ -1196,19 +1196,19 @@
         <v>11667</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>7416</v>
+        <v>7208</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>17497</v>
+        <v>17294</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.06312291842036952</v>
+        <v>0.06312291842036953</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.04012183784601819</v>
+        <v>0.03899697539250219</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.09466285784609106</v>
+        <v>0.09356404624989957</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>42</v>
@@ -1217,19 +1217,19 @@
         <v>30084</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>21898</v>
+        <v>22543</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>41202</v>
+        <v>40263</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.04637523737091558</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.03375697635385412</v>
+        <v>0.03475132311131672</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.06351473491958984</v>
+        <v>0.06206741386826989</v>
       </c>
     </row>
     <row r="11">
@@ -1246,19 +1246,19 @@
         <v>445449</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>436654</v>
+        <v>436075</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>451951</v>
+        <v>452167</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.9602980902278256</v>
+        <v>0.9602980902278255</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9413381960176972</v>
+        <v>0.9400897374696469</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9743164241520716</v>
+        <v>0.9747819383607872</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>264</v>
@@ -1267,19 +1267,19 @@
         <v>173166</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>167336</v>
+        <v>167539</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>177417</v>
+        <v>177625</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.9368770815796302</v>
+        <v>0.9368770815796305</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9053371421539089</v>
+        <v>0.9064359537501006</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9598781621539818</v>
+        <v>0.9610030246074979</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>721</v>
@@ -1288,19 +1288,19 @@
         <v>618614</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>607496</v>
+        <v>608435</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>626800</v>
+        <v>626155</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9536247626290844</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9364852650804102</v>
+        <v>0.93793258613173</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9662430236461458</v>
+        <v>0.9652486768886833</v>
       </c>
     </row>
     <row r="12">
@@ -1392,19 +1392,19 @@
         <v>63208</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>48421</v>
+        <v>48378</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>80238</v>
+        <v>82627</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.05768708162598225</v>
+        <v>0.05768708162598224</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.0441916751515678</v>
+        <v>0.04415222765273273</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.07322966815331282</v>
+        <v>0.0754102698871114</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>61</v>
@@ -1413,19 +1413,19 @@
         <v>34040</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>25749</v>
+        <v>25946</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>44437</v>
+        <v>43403</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.04067948594689527</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.03077097266010174</v>
+        <v>0.03100626863959065</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.05310393320678804</v>
+        <v>0.05186881116037182</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>127</v>
@@ -1434,19 +1434,19 @@
         <v>97248</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>79743</v>
+        <v>80765</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>115486</v>
+        <v>117726</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.05032259439008754</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.04126444977742094</v>
+        <v>0.04179329939630059</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.05976030556215368</v>
+        <v>0.06091949449856329</v>
       </c>
     </row>
     <row r="14">
@@ -1463,19 +1463,19 @@
         <v>1032491</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1015461</v>
+        <v>1013072</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1047278</v>
+        <v>1047321</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9423129183740178</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9267703318466873</v>
+        <v>0.9245897301128887</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9558083248484324</v>
+        <v>0.9558477723472675</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1138</v>
@@ -1484,19 +1484,19 @@
         <v>802750</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>792353</v>
+        <v>793387</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>811041</v>
+        <v>810844</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.9593205140531046</v>
+        <v>0.9593205140531048</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9468960667932119</v>
+        <v>0.9481311888396282</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9692290273398984</v>
+        <v>0.9689937313604094</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2156</v>
@@ -1505,19 +1505,19 @@
         <v>1835241</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1817003</v>
+        <v>1814763</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1852746</v>
+        <v>1851724</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9496774056099124</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9402396944378463</v>
+        <v>0.9390805055014366</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9587355502225788</v>
+        <v>0.9582067006036993</v>
       </c>
     </row>
     <row r="15">
@@ -1609,19 +1609,19 @@
         <v>14200</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>7855</v>
+        <v>7843</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>23092</v>
+        <v>23500</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.02785223338677356</v>
+        <v>0.02785223338677357</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.015406881946868</v>
+        <v>0.01538254312816212</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.04529128118050281</v>
+        <v>0.04609266471433481</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>58</v>
@@ -1630,19 +1630,19 @@
         <v>34967</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>26280</v>
+        <v>26468</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>44650</v>
+        <v>44960</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.04406591898644679</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.03311839831176339</v>
+        <v>0.03335521233942655</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.05626904123401215</v>
+        <v>0.05665989913290211</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>72</v>
@@ -1651,19 +1651,19 @@
         <v>49167</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>38644</v>
+        <v>38077</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>61813</v>
+        <v>62801</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.0377234172815403</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.02964988957934243</v>
+        <v>0.02921477637903478</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.047426228657939</v>
+        <v>0.04818417605108662</v>
       </c>
     </row>
     <row r="17">
@@ -1680,19 +1680,19 @@
         <v>495648</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>486756</v>
+        <v>486348</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>501993</v>
+        <v>502005</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.9721477666132263</v>
+        <v>0.9721477666132264</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9547087188194973</v>
+        <v>0.9539073352856654</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9845931180531319</v>
+        <v>0.984617456871838</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1179</v>
@@ -1701,19 +1701,19 @@
         <v>758538</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>748855</v>
+        <v>748545</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>767225</v>
+        <v>767037</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9559340810135533</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9437309587659871</v>
+        <v>0.9433401008670977</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9668816016882366</v>
+        <v>0.9666447876605742</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1659</v>
@@ -1722,19 +1722,19 @@
         <v>1254186</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1241540</v>
+        <v>1240552</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1264709</v>
+        <v>1265276</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9622765827184596</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.952573771342061</v>
+        <v>0.9518158239489135</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9703501104206577</v>
+        <v>0.9707852236209653</v>
       </c>
     </row>
     <row r="18">
@@ -1829,7 +1829,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>2760</v>
+        <v>2536</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.002247338347375464</v>
@@ -1838,7 +1838,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.01222485198135901</v>
+        <v>0.01123273290741826</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>42</v>
@@ -1847,19 +1847,19 @@
         <v>25564</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>18619</v>
+        <v>17656</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>36691</v>
+        <v>34808</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.03122294544355848</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.02274142252748806</v>
+        <v>0.02156431537067774</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.04481369764406869</v>
+        <v>0.04251434340265114</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>43</v>
@@ -1868,19 +1868,19 @@
         <v>26071</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>18312</v>
+        <v>18886</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>35642</v>
+        <v>35623</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.02495953609823414</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01753133903015894</v>
+        <v>0.01808097454295433</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.03412294508326786</v>
+        <v>0.03410469550916645</v>
       </c>
     </row>
     <row r="20">
@@ -1897,16 +1897,16 @@
         <v>225280</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>223027</v>
+        <v>223251</v>
       </c>
       <c r="F20" s="5" t="n">
         <v>225787</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.9977526616526246</v>
+        <v>0.9977526616526244</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.987775148018641</v>
+        <v>0.9887672670925819</v>
       </c>
       <c r="I20" s="6" t="n">
         <v>1</v>
@@ -1918,19 +1918,19 @@
         <v>793178</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>782051</v>
+        <v>783934</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>800123</v>
+        <v>801086</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9687770545564415</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9551863023559314</v>
+        <v>0.9574856565973485</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9772585774725122</v>
+        <v>0.9784356846293223</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1189</v>
@@ -1939,19 +1939,19 @@
         <v>1018458</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1008887</v>
+        <v>1008906</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1026217</v>
+        <v>1025643</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.9750404639017658</v>
+        <v>0.9750404639017659</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.965877054916732</v>
+        <v>0.9658953044908336</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.982468660969841</v>
+        <v>0.9819190254570457</v>
       </c>
     </row>
     <row r="21">
@@ -2043,19 +2043,19 @@
         <v>151523</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>130646</v>
+        <v>130149</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>174679</v>
+        <v>175071</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.0456973057445401</v>
+        <v>0.04569730574454009</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.03940120708920931</v>
+        <v>0.03925108021195545</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.0526810232343065</v>
+        <v>0.0527991368261438</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>242</v>
@@ -2064,19 +2064,19 @@
         <v>144564</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>126974</v>
+        <v>127151</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>163941</v>
+        <v>164740</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.04091696600532693</v>
+        <v>0.04091696600532691</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.03593808821566059</v>
+        <v>0.03598838036258081</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.04640120487971608</v>
+        <v>0.04662723782098416</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>409</v>
@@ -2085,19 +2085,19 @@
         <v>296087</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>266755</v>
+        <v>269922</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>326699</v>
+        <v>328354</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.04323129356198669</v>
+        <v>0.0432312935619867</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.03894852585280403</v>
+        <v>0.0394108653359707</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.0477008133259763</v>
+        <v>0.0479425329344416</v>
       </c>
     </row>
     <row r="23">
@@ -2114,19 +2114,19 @@
         <v>3164272</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3141116</v>
+        <v>3140724</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3185149</v>
+        <v>3185646</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.95430269425546</v>
+        <v>0.9543026942554599</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9473189767656937</v>
+        <v>0.9472008631738563</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9605987929107911</v>
+        <v>0.9607489197880446</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>4863</v>
@@ -2135,19 +2135,19 @@
         <v>3388554</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3369177</v>
+        <v>3368378</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3406144</v>
+        <v>3405967</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.9590830339946731</v>
+        <v>0.959083033994673</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9535987951202838</v>
+        <v>0.9533727621790159</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9640619117843393</v>
+        <v>0.9640116196374192</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>7879</v>
@@ -2156,19 +2156,19 @@
         <v>6552826</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>6522214</v>
+        <v>6520559</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>6582158</v>
+        <v>6578991</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.9567687064380133</v>
+        <v>0.9567687064380134</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9522991866740237</v>
+        <v>0.9520574670655583</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9610514741471955</v>
+        <v>0.9605891346640293</v>
       </c>
     </row>
     <row r="24">
